--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,72 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2030,6 +2096,182 @@
         <v>775.54</v>
       </c>
     </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>776.6900000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>784.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>787.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>780.08</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>773.01</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>772.78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>774.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>784.1799999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>789.62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>787.71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>789.98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>786.4299999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>783.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>782.17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>783.03</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>785.0599999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>784.39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>779.97</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>775.14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>767.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>768.36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>766.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Serie</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2272,6 +2275,14 @@
         <v>766.53</v>
       </c>
     </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>770.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Serie</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2283,6 +2286,14 @@
         <v>770.33</v>
       </c>
     </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>777.9400000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2294,6 +2297,14 @@
         <v>777.9400000000001</v>
       </c>
     </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>787.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,24 @@
   </si>
   <si>
     <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2305,6 +2323,54 @@
         <v>787.51</v>
       </c>
     </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>791.28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>789.91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>784.26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>783.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>781.85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>780.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,33 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2371,6 +2398,78 @@
         <v>780.59</v>
       </c>
     </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>788.05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>785.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>785.03</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>787.24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>788.98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>795.48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>798.63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>803.59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>811.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2470,6 +2476,22 @@
         <v>811.9</v>
       </c>
     </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>803.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>805.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Serie</t>
   </si>
@@ -593,6 +593,15 @@
   </si>
   <si>
     <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -950,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2492,6 +2501,30 @@
         <v>805.89</v>
       </c>
     </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>810.63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>816.28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>813.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Serie</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2525,6 +2528,14 @@
         <v>813.62</v>
       </c>
     </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>820.1799999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Serie</t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
   </si>
 </sst>
 </file>
@@ -962,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2536,6 +2548,38 @@
         <v>820.1799999999999</v>
       </c>
     </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>827.5599999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>820.1900000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>816.8099999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>826.1900000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Serie</t>
   </si>
@@ -617,6 +617,36 @@
   </si>
   <si>
     <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2580,6 +2610,86 @@
         <v>826.1900000000001</v>
       </c>
     </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>820.29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>813.33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>811.55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>817.61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>816.58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>810.16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>806.55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>804.3200000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>805.47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>810.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2690,6 +2696,22 @@
         <v>810.91</v>
       </c>
     </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>814.42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>815.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2712,6 +2715,14 @@
         <v>815.52</v>
       </c>
     </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>815.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B213"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2723,6 +2726,14 @@
         <v>815.58</v>
       </c>
     </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>812.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>08-11-2021</t>
+  </si>
+  <si>
+    <t>09-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2734,6 +2737,14 @@
         <v>812.4</v>
       </c>
     </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>806.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Dólar observado 2021 - Diaria.xlsx
+++ b/4/Dólar observado 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>09-11-2021</t>
+  </si>
+  <si>
+    <t>10-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2745,6 +2748,14 @@
         <v>806.61</v>
       </c>
     </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>797.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
